--- a/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-21.xlsx
+++ b/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-21.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ちかん</t>
+          <t>痴漢|ちかん</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ふる</t>
+          <t>ふる|振る</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ためる</t>
+          <t>ためる|貯める</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ほめる</t>
+          <t>ほめる|褒める</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ばかにする</t>
+          <t>ばかにする|馬鹿にする</t>
         </is>
       </c>
     </row>
